--- a/xlsx/101号美国国道加利福尼亚州段_intext.xlsx
+++ b/xlsx/101号美国国道加利福尼亚州段_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E6%AE%B5</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/80%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%AE%B5</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/205%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>205號州際公路 (加利福尼亞州)</t>
+    <t>205号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/238%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>238號州際公路</t>
+    <t>238号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/280%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>280號州際公路 (加利福尼亞州)</t>
+    <t>280号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/380%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>380號州際公路 (加利福尼亞州)</t>
+    <t>380号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/480%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/505%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>505號州際公路</t>
+    <t>505号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/580%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>580號州際公路 (加利福尼亞州)</t>
+    <t>580号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/680%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>680號州際公路 (加利福尼亞州)</t>
+    <t>680号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/780%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>780號州際公路</t>
+    <t>780号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/880%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>880號州際公路</t>
+    <t>880号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/980%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>980號州際公路</t>
+    <t>980号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
